--- a/notas_exemplo.xlsx
+++ b/notas_exemplo.xlsx
@@ -342,104 +342,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A7"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>7.5</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="D3" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>7.5</v>
-      </c>
       <c r="D4" s="2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>9</v>
-      </c>
       <c r="C6" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="n">
         <v>7.5</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
